--- a/Suites/Pontuacoes/AFC/01_CopaÁsia_FaseFinal.xlsx
+++ b/Suites/Pontuacoes/AFC/01_CopaÁsia_FaseFinal.xlsx
@@ -173,13 +173,13 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -239,7 +239,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>2</v>
